--- a/aichan/550894959476298023_2021-07-24_13-13-48.xlsx
+++ b/aichan/550894959476298023_2021-07-24_13-13-48.xlsx
@@ -908,7 +908,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -17692,7 +17692,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -26961,7 +26961,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -33147,7 +33147,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -33644,7 +33644,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -39335,7 +39335,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -40810,7 +40810,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -44828,7 +44828,7 @@
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
@@ -46280,7 +46280,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -47394,7 +47394,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -50518,7 +50518,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K693" t="inlineStr">
@@ -55428,7 +55428,7 @@
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K759" t="inlineStr">
@@ -55654,7 +55654,7 @@
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K762" t="inlineStr">
@@ -57849,7 +57849,7 @@
       </c>
       <c r="J792" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K792" t="inlineStr">
@@ -58137,7 +58137,7 @@
         </is>
       </c>
       <c r="I796" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J796" t="inlineStr">
         <is>
@@ -58504,7 +58504,7 @@
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K801" t="inlineStr">
@@ -61673,7 +61673,7 @@
       </c>
       <c r="J844" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K844" t="inlineStr">
@@ -62036,7 +62036,7 @@
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K849" t="inlineStr">
@@ -63301,7 +63301,7 @@
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K866" t="inlineStr">
@@ -63602,7 +63602,7 @@
       </c>
       <c r="J870" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K870" t="inlineStr">
@@ -63756,7 +63756,7 @@
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K872" t="inlineStr">
@@ -64334,7 +64334,7 @@
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K880" t="inlineStr">
@@ -68007,7 +68007,7 @@
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K929" t="inlineStr">
@@ -71683,7 +71683,7 @@
       </c>
       <c r="J979" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K979" t="inlineStr">
@@ -74018,7 +74018,7 @@
         </is>
       </c>
       <c r="I1011" t="n">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="J1011" t="inlineStr">
         <is>
@@ -74541,7 +74541,7 @@
         </is>
       </c>
       <c r="I1018" t="n">
-        <v>3405</v>
+        <v>3408</v>
       </c>
       <c r="J1018" t="inlineStr">
         <is>

--- a/aichan/550894959476298023_2021-07-24_13-13-48.xlsx
+++ b/aichan/550894959476298023_2021-07-24_13-13-48.xlsx
@@ -776,7 +776,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4244,7 +4244,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4517,7 +4517,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6797,7 +6797,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -19092,7 +19092,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -19317,7 +19317,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -21103,7 +21103,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -27860,7 +27860,7 @@
         </is>
       </c>
       <c r="I381" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J381" t="inlineStr">
         <is>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="I419" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J419" t="inlineStr">
         <is>
@@ -31930,7 +31930,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -36625,7 +36625,7 @@
         </is>
       </c>
       <c r="I503" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J503" t="inlineStr">
         <is>
@@ -36842,7 +36842,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -37340,7 +37340,7 @@
         </is>
       </c>
       <c r="I513" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J513" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -43153,7 +43153,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -44354,7 +44354,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -57522,7 +57522,7 @@
         </is>
       </c>
       <c r="I790" t="n">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="J790" t="inlineStr">
         <is>
@@ -62255,7 +62255,7 @@
         </is>
       </c>
       <c r="I854" t="n">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="J854" t="inlineStr">
         <is>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K905" t="inlineStr">
@@ -67495,7 +67495,7 @@
         </is>
       </c>
       <c r="I925" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J925" t="inlineStr">
         <is>
@@ -68151,7 +68151,7 @@
         </is>
       </c>
       <c r="I934" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J934" t="inlineStr">
         <is>
@@ -72054,7 +72054,7 @@
       </c>
       <c r="J986" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K986" t="inlineStr">
@@ -77194,7 +77194,7 @@
         </is>
       </c>
       <c r="I1056" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J1056" t="inlineStr">
         <is>
@@ -77848,7 +77848,7 @@
         </is>
       </c>
       <c r="I1065" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J1065" t="inlineStr">
         <is>
@@ -78136,7 +78136,7 @@
         </is>
       </c>
       <c r="I1069" t="n">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="J1069" t="inlineStr">
         <is>
@@ -78659,7 +78659,7 @@
         </is>
       </c>
       <c r="I1076" t="n">
-        <v>3595</v>
+        <v>3604</v>
       </c>
       <c r="J1076" t="inlineStr">
         <is>

--- a/aichan/550894959476298023_2021-07-24_13-13-48.xlsx
+++ b/aichan/550894959476298023_2021-07-24_13-13-48.xlsx
@@ -28681,7 +28681,7 @@
         </is>
       </c>
       <c r="I392" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J392" t="inlineStr">
         <is>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="I419" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J419" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         </is>
       </c>
       <c r="I468" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J468" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         </is>
       </c>
       <c r="I496" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J496" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         </is>
       </c>
       <c r="I503" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J503" t="inlineStr">
         <is>
@@ -44350,7 +44350,7 @@
         </is>
       </c>
       <c r="I613" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J613" t="inlineStr">
         <is>
@@ -54403,7 +54403,7 @@
         </is>
       </c>
       <c r="I748" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J748" t="inlineStr">
         <is>
@@ -57522,7 +57522,7 @@
         </is>
       </c>
       <c r="I790" t="n">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="J790" t="inlineStr">
         <is>
@@ -60062,7 +60062,7 @@
         </is>
       </c>
       <c r="I824" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J824" t="inlineStr">
         <is>
@@ -60506,7 +60506,7 @@
         </is>
       </c>
       <c r="I830" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J830" t="inlineStr">
         <is>
@@ -62255,7 +62255,7 @@
         </is>
       </c>
       <c r="I854" t="n">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="J854" t="inlineStr">
         <is>
@@ -73309,7 +73309,7 @@
         </is>
       </c>
       <c r="I1003" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1003" t="inlineStr">
         <is>
@@ -74911,7 +74911,7 @@
         </is>
       </c>
       <c r="I1025" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1025" t="inlineStr">
         <is>
@@ -75057,7 +75057,7 @@
         </is>
       </c>
       <c r="I1027" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J1027" t="inlineStr">
         <is>
@@ -77194,7 +77194,7 @@
         </is>
       </c>
       <c r="I1056" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J1056" t="inlineStr">
         <is>
@@ -77848,7 +77848,7 @@
         </is>
       </c>
       <c r="I1065" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J1065" t="inlineStr">
         <is>
@@ -78136,7 +78136,7 @@
         </is>
       </c>
       <c r="I1069" t="n">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="J1069" t="inlineStr">
         <is>
@@ -78646,7 +78646,7 @@
         </is>
       </c>
       <c r="F1076" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G1076" t="inlineStr">
         <is>
@@ -78659,7 +78659,7 @@
         </is>
       </c>
       <c r="I1076" t="n">
-        <v>3604</v>
+        <v>3613</v>
       </c>
       <c r="J1076" t="inlineStr">
         <is>
